--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_13_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_13_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,606 +518,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_8</t>
+          <t>model_13_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9260673449403783</v>
+        <v>0.9264827828866049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7397205635977079</v>
+        <v>0.7923159246174392</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9495968675220597</v>
+        <v>0.966867991779669</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9505267771122228</v>
+        <v>0.9070367459186665</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9611286044245896</v>
+        <v>0.9455474278324842</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4943880048122644</v>
+        <v>0.4916099693529315</v>
       </c>
       <c r="H2" t="n">
-        <v>1.740489789698732</v>
+        <v>1.38878436838042</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5091870128847623</v>
+        <v>0.4130987442861255</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5158347733644979</v>
+        <v>0.6941318814408504</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5125108931246301</v>
+        <v>0.553615312863488</v>
       </c>
       <c r="L2" t="n">
-        <v>1.120973572103767</v>
+        <v>0.8542169316750049</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7031273034182817</v>
+        <v>0.7011490350509879</v>
       </c>
       <c r="N2" t="n">
-        <v>1.197153746825658</v>
+        <v>1.196045912302387</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7330608883989702</v>
+        <v>0.7309984010517007</v>
       </c>
       <c r="P2" t="n">
-        <v>67.4088692704882</v>
+        <v>67.4201392441922</v>
       </c>
       <c r="Q2" t="n">
-        <v>107.6317714911388</v>
+        <v>107.6430414648428</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_9</t>
+          <t>model_13_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9257527621538916</v>
+        <v>0.9259302186453737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7397202083784835</v>
+        <v>0.7914266553709985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9463682175492303</v>
+        <v>0.9639240838752993</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9484337371188547</v>
+        <v>0.9035585691266574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9590641057968996</v>
+        <v>0.9424650778947197</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4964916213540216</v>
+        <v>0.4953049689783682</v>
       </c>
       <c r="H3" t="n">
-        <v>1.740492165051321</v>
+        <v>1.394730915926077</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5418037681238332</v>
+        <v>0.4498041757982079</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5376579485611274</v>
+        <v>0.7201025020315287</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5397308583424802</v>
+        <v>0.5849533389148682</v>
       </c>
       <c r="L3" t="n">
-        <v>1.110439956545092</v>
+        <v>0.872476080269116</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7046216157300467</v>
+        <v>0.7037790626172167</v>
       </c>
       <c r="N3" t="n">
-        <v>1.197992634256289</v>
+        <v>1.19751941694567</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7346188166794999</v>
+        <v>0.7337403943363313</v>
       </c>
       <c r="P3" t="n">
-        <v>67.40037734211839</v>
+        <v>67.40516321435658</v>
       </c>
       <c r="Q3" t="n">
-        <v>107.623279562769</v>
+        <v>107.6280654350072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_10</t>
+          <t>model_13_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.925372067118907</v>
+        <v>0.9252682811000871</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7396552426320062</v>
+        <v>0.7904280878373118</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9429971084293024</v>
+        <v>0.9608504754763781</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9462940986467305</v>
+        <v>0.8997929000336914</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9569266054106726</v>
+        <v>0.939197629299561</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4990373308059036</v>
+        <v>0.4997313483916427</v>
       </c>
       <c r="H4" t="n">
-        <v>1.740926591297154</v>
+        <v>1.401408341621821</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5758596868434877</v>
+        <v>0.4881267477829171</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5599669848827298</v>
+        <v>0.7482197511340318</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5679133358631087</v>
+        <v>0.6181732494584745</v>
       </c>
       <c r="L4" t="n">
-        <v>1.099937865776262</v>
+        <v>0.891056736292707</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7064257433063319</v>
+        <v>0.7069167902883923</v>
       </c>
       <c r="N4" t="n">
-        <v>1.199007821016248</v>
+        <v>1.199284583733101</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7364997497017665</v>
+        <v>0.7370117015704606</v>
       </c>
       <c r="P4" t="n">
-        <v>67.39014874958913</v>
+        <v>67.38736925635152</v>
       </c>
       <c r="Q4" t="n">
-        <v>107.6130509702398</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>model_13_9_7</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9263109267831778</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7396521682843199</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9526704773368515</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9525682161634014</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9631133034789534</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4927591719078727</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.740947149474289</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4781365181352126</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.4945496177017903</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4863430679185015</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.131528750284836</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7019680704333159</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.196504195244859</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.7318523044658912</v>
-      </c>
-      <c r="P5" t="n">
-        <v>67.41546943881586</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>107.6383716594665</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>model_13_9_6</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9264788662182672</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7395109248081834</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9555764548936203</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.954552635732716</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9650112363800997</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4916361601321395</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.74189164524958</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.4487794929088763</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4738589782195108</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.4613192355641935</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.142095311185653</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.7011677118437069</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.196056356751287</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.7310178729541519</v>
-      </c>
-      <c r="P6" t="n">
-        <v>67.42003269598041</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>107.642934916631</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>model_13_9_5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.926566128431789</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7392925885589914</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9583015535226211</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9564747123891613</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9668152233857982</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4910526373085141</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.743351660753273</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.4212497588923535</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4538183599093669</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.4375340594008602</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.152669164530949</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.7007514804183536</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.195823657515229</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.7305839216953034</v>
-      </c>
-      <c r="P7" t="n">
-        <v>67.42240790527852</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>107.6453101259291</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>model_13_9_4</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9265675004894574</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.738992964031007</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9608327826026692</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9583288868304018</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9685180895833859</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4910434623525683</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.745355251351548</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.3956785510956782</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.4344857270860487</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.4150821390908633</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.163240926302539</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.7007449338757779</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.19581999869478</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.7305770964528572</v>
-      </c>
-      <c r="P8" t="n">
-        <v>67.42244527415087</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>107.6453474948015</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>model_13_9_3</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9264782480950213</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.738607584104219</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9631568770955572</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9601093838978604</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9701124695801947</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4916402935251314</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.747932288696491</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.3721998767689689</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4159212946990183</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3940605857339936</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.173800145800909</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.7011706593441652</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.196058005079943</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.731020945935807</v>
-      </c>
-      <c r="P9" t="n">
-        <v>67.42001588120577</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>107.6429181018564</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>model_13_9_2</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9262928367788344</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7381321900599899</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9652603814113089</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9618105079982033</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9715909564425418</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4928801398502135</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.75111125085924</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.3509496681713862</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.3981844481071602</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.3745670581392733</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.184339524781483</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.7020542285680027</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.196552435256441</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.7319421305307436</v>
-      </c>
-      <c r="P10" t="n">
-        <v>67.41497851706993</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>107.6378807377206</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>model_13_9_1</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9260062008063863</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7375623838019754</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9671299435322714</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9634261633196461</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9729460246690675</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4947968759178122</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.754921547930299</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.3320628112445462</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.3813387455649574</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.3567007784047518</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.194848299821385</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7034179951620603</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.197316797849637</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.7333639554920962</v>
-      </c>
-      <c r="P11" t="n">
-        <v>67.40721590462385</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>107.6301181252745</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>model_13_9_0</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.925613234973259</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7368938103359411</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9687522742974626</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9649506918813445</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9741703459577284</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4974246402533755</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.759392301776168</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.3156735569338099</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3654431802629909</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.3405583685984004</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.205315875804232</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.7052833758521291</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.198364706737976</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.7353087493000116</v>
-      </c>
-      <c r="P12" t="n">
-        <v>67.39662242146981</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>107.6195246421204</v>
+        <v>107.6102714770021</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_13_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_13_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,166 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_0</t>
+          <t>model_13_9_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9264827828866049</v>
+        <v>0.9565450993110962</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7923159246174392</v>
+        <v>0.8008657801383418</v>
       </c>
       <c r="D2" t="n">
-        <v>0.966867991779669</v>
+        <v>0.7091967163268296</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9070367459186665</v>
+        <v>0.9459157351070571</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9455474278324842</v>
+        <v>0.9126715252644972</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4916099693529315</v>
+        <v>0.2905831209981188</v>
       </c>
       <c r="H2" t="n">
-        <v>1.38878436838042</v>
+        <v>1.331611445143679</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4130987442861255</v>
+        <v>0.238228780799011</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6941318814408504</v>
+        <v>0.2056637912979951</v>
       </c>
       <c r="K2" t="n">
-        <v>0.553615312863488</v>
+        <v>0.2219462860485031</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8542169316750049</v>
+        <v>1.391022457153121</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7011490350509879</v>
+        <v>0.5390576230776435</v>
       </c>
       <c r="N2" t="n">
-        <v>1.196045912302387</v>
+        <v>1.11587973517041</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7309984010517007</v>
+        <v>0.5620064220951715</v>
       </c>
       <c r="P2" t="n">
-        <v>67.4201392441922</v>
+        <v>68.47173122563062</v>
       </c>
       <c r="Q2" t="n">
-        <v>107.6430414648428</v>
+        <v>108.6946334462812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_1</t>
+          <t>model_13_9_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9259302186453737</v>
+        <v>0.9560432604894048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7914266553709985</v>
+        <v>0.800851288063447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9639240838752993</v>
+        <v>0.7134515196763656</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9035585691266574</v>
+        <v>0.9468356509558654</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9424650778947197</v>
+        <v>0.9140454514624847</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4953049689783682</v>
+        <v>0.2939389195095248</v>
       </c>
       <c r="H3" t="n">
-        <v>1.394730915926077</v>
+        <v>1.331708353715231</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4498041757982079</v>
+        <v>0.234743205939964</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7201025020315287</v>
+        <v>0.2021656688493397</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5849533389148682</v>
+        <v>0.2184544373946519</v>
       </c>
       <c r="L3" t="n">
-        <v>0.872476080269116</v>
+        <v>1.401551173668548</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7037790626172167</v>
+        <v>0.5421613408474684</v>
       </c>
       <c r="N3" t="n">
-        <v>1.19751941694567</v>
+        <v>1.117217972028254</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7337403943363313</v>
+        <v>0.5652422715560392</v>
       </c>
       <c r="P3" t="n">
-        <v>67.40516321435658</v>
+        <v>68.44876657999642</v>
       </c>
       <c r="Q3" t="n">
-        <v>107.6280654350072</v>
+        <v>108.671668800647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_13_9_2</t>
+          <t>model_13_9_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9252682811000871</v>
+        <v>0.9570262624277539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7904280878373118</v>
+        <v>0.8008486543531317</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9608504754763781</v>
+        <v>0.7044229433473748</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8997929000336914</v>
+        <v>0.9450265632779322</v>
       </c>
       <c r="F4" t="n">
-        <v>0.939197629299561</v>
+        <v>0.9112369587840871</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4997313483916427</v>
+        <v>0.2873655810214765</v>
       </c>
       <c r="H4" t="n">
-        <v>1.401408341621821</v>
+        <v>1.331725965348236</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4881267477829171</v>
+        <v>0.2421395004523177</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7482197511340318</v>
+        <v>0.2090450048516078</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6181732494584745</v>
+        <v>0.2255922526519627</v>
       </c>
       <c r="L4" t="n">
-        <v>0.891056736292707</v>
+        <v>1.380611097808499</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7069167902883923</v>
+        <v>0.5360649037397212</v>
       </c>
       <c r="N4" t="n">
-        <v>1.199284583733101</v>
+        <v>1.11459663352599</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7370117015704606</v>
+        <v>0.5588862964992507</v>
       </c>
       <c r="P4" t="n">
-        <v>67.38736925635152</v>
+        <v>68.49400014470152</v>
       </c>
       <c r="Q4" t="n">
-        <v>107.6102714770021</v>
+        <v>108.7169023653521</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9555198683802316</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8008040690542747</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.717165995084093</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9477839774770755</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.915353549550185</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2974388449535648</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.332024107446989</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.231700272804844</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1985595104199595</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2151298916124018</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.4132563613</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5453795421113308</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.118613684319382</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5685974783102994</v>
+      </c>
+      <c r="P5" t="n">
+        <v>68.4250932766175</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>108.6479954972681</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9574877190238161</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8008010008744566</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6991573394644945</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9441698753232753</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9097474274572254</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2842798186387959</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.332044624379561</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2464531326002921</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2123026934429719</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.229377913021632</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.370317756297575</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.533178974302997</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.113366082603157</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5558775070717077</v>
+      </c>
+      <c r="P6" t="n">
+        <v>68.5155924979809</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>108.7384947186315</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9579304448378011</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8007239969963295</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6934261293954562</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9433477255961932</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.908208694691883</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2813193090821135</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.332559549667167</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2511481937082832</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2154290450763172</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2332886193923002</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.360128791396789</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5303954270938933</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.11218548043253</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5529754584951754</v>
+      </c>
+      <c r="P7" t="n">
+        <v>68.536529847062</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>108.7594320677126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_0</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9549739580177991</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8007230571418751</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7203191695453037</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9487576386835497</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9165901382224879</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3010893500608378</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.332565834478231</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2291171626760565</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1948570129272114</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.211987087801634</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.427143358897572</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5487160924019249</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.120069445285869</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5720760724543753</v>
+      </c>
+      <c r="P8" t="n">
+        <v>68.4006964284536</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>108.6235986491042</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9583552632789913</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8006187638996441</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6872532151144908</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.942561016507153</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9066252877705613</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2784785462097654</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.333263243869256</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2562051030545475</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2184206281961189</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2373128656253332</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.35005310274928</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5277106652416317</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.111052631256023</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.5501764007726397</v>
+      </c>
+      <c r="P9" t="n">
+        <v>68.55682851188027</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>108.7797307325309</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9587630355824184</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8004863437488904</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6806686285813832</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9418109670998411</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9050029587960312</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2757517709391304</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.334148738027084</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2615992581756113</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2212728072000103</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2414360326878108</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.340082335892823</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5251207203483123</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.109965238446884</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5474761965632867</v>
+      </c>
+      <c r="P10" t="n">
+        <v>68.57650839721151</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>108.7994106178621</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9591545956197469</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8003279225236355</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6736969300731701</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9410983356030673</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9033462332830979</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2731334071665457</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.335208101489827</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2673105390618907</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2239826988055446</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2456466189337176</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.330219640499133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5226216673335939</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.108921078347342</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5448707536879789</v>
+      </c>
+      <c r="P11" t="n">
+        <v>68.59558986443642</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>108.818492085087</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_10</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9595307357508125</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8001445267842858</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6663653513166619</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9404237013945405</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.901659933492812</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2706181563781442</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.336434469643318</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.273316637227061</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2265480998392757</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2499323685331683</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.320461670296086</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5202097234559772</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.107918037997833</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5423561283660798</v>
+      </c>
+      <c r="P12" t="n">
+        <v>68.61409293751045</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>108.8369951581611</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_11</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9598922622295843</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7999372195367376</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6586995094516501</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9397869698555599</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8999481172471889</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2682006271499203</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.337820734162235</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2795965668696444</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.2289693701034641</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2542829684865543</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.310804940355921</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5178809005455988</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.106953967387775</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.5399281626430786</v>
+      </c>
+      <c r="P13" t="n">
+        <v>68.6320399395414</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>108.854942160192</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9602397708307595</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.799706977066365</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6507249544807736</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9391879424102167</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8982147537767032</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.265876835533732</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.339360366621786</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2861293971875501</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2312472647137482</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2586883309506491</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.301249244503361</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5156324616756901</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.106027277784641</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5375840030755679</v>
+      </c>
+      <c r="P14" t="n">
+        <v>68.64944420347715</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>108.8723464241278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9605740271107641</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.799454792576912</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6424643054831807</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.938626173906</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8964631554809813</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2636416622502326</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.341046725463961</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2928965984187331</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.2333834764314764</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2631400374251047</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.29179191942058</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5134604777879526</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.105135927704629</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5353195533371029</v>
+      </c>
+      <c r="P15" t="n">
+        <v>68.66632887563475</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>108.8892310962854</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9608955652949892</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7991815641947744</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6339401787620162</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9381011818348334</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8946966063662167</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2614915349317724</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.342873804913416</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2998796430752768</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2353798400683167</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2676297415717968</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.282430742586793</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.511362430113684</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.104278492546696</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5331321874297833</v>
+      </c>
+      <c r="P16" t="n">
+        <v>68.68270673439785</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>108.9056089550485</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9612049341690903</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7988882223877849</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6251728832007484</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9376121029512119</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8929177337283257</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.259422783846146</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.34483538292747</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3070618939291316</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2372396382489611</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2721507660890464</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.273166601730745</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5093356298612399</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.103453508882426</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.5310191020945378</v>
+      </c>
+      <c r="P17" t="n">
+        <v>68.69859235617631</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>108.9214945768269</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.961502610417539</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7985756029500114</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6161840373038709</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9371577182491631</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8911291097817374</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2574322214020963</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.346925870547341</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3144256408984058</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2389675064323629</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2766965736653844</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.263991840186249</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5073777896223841</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.102659705553229</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5289779125434259</v>
+      </c>
+      <c r="P18" t="n">
+        <v>68.71399762276437</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>108.936899843415</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9617891459166839</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7982445030690243</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6069914720178571</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9367369106348933</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8893327725574419</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2555161571999403</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.349139936976076</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3219562767043056</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2405676925406348</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2812619846224702</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.25491364156748</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5054860603418656</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.101895610888843</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5270056484310163</v>
+      </c>
+      <c r="P19" t="n">
+        <v>68.72893926752927</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>108.9518414881799</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9620648220735337</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7978957008034226</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.597611139194396</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9363482044912853</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8875301890260536</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2536727094697128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.351472379332241</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3296407334401297</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2420458078363401</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2858432706382349</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.245927089092114</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5036593188552285</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.101160474470577</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.5251011387774168</v>
+      </c>
+      <c r="P20" t="n">
+        <v>68.74342077649376</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>108.9663229971444</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9623300892758774</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7975299287998127</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5880590630815932</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9359901970171197</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8857228923002457</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.251898866466198</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.353918298404607</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3374658838913532</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.2434071866883158</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2904365352898345</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.237027303255399</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5018952744011423</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.100453095264327</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5232619952988449</v>
+      </c>
+      <c r="P21" t="n">
+        <v>68.75745519113879</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>108.9803574117894</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9625852092665722</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7971479109189576</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5783489027895691</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9356608441315697</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8839115545662364</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2501928779137016</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.356472853732915</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3454205383866982</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.244659602030398</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2950400702085481</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.228217794269435</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5001928407261559</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.099772775289141</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5214870854977907</v>
+      </c>
+      <c r="P22" t="n">
+        <v>68.77104629385443</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>108.993948514505</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9628305259655395</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7967502879682242</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5684942331826066</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9353587305945257</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8820973048741214</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2485524440181275</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.359131760235355</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3534935762698682</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2458084355322291</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2996510059010487</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.21949423356613</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.498550342511293</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.099118597425228</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.5197746627334809</v>
+      </c>
+      <c r="P23" t="n">
+        <v>68.78420282677057</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>109.0071050474212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9630662942569688</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7963377250831722</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5585083250572445</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9350817909326689</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8802807368233289</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2469758603677278</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.361890570147374</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3616741259797182</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.2468615414759079</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3042678337278131</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.21085235013688</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4969666592113879</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.098489881981417</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.5181235587568225</v>
+      </c>
+      <c r="P24" t="n">
+        <v>68.79692935686984</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>109.0198315775205</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9632926758471232</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7959108271189828</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5483985306234863</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9348283277539127</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8784617655043834</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2454620456319732</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.364745238799594</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3699561645167714</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.2478253744576566</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3088907694872139</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.202297099255753</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.495441263553989</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.097886197741005</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5165332238482838</v>
+      </c>
+      <c r="P25" t="n">
+        <v>68.80922588795302</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>109.0321281086036</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_13_9_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9635098701769299</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7954702034271839</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.538177596836949</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9345961157961202</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8766407805520064</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2440096661484678</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.367691691455538</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3783292494552852</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2487083963812944</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3135188229182898</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.193821926153228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4939733455850303</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.09730701286152</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.5150028135723774</v>
+      </c>
+      <c r="P26" t="n">
+        <v>68.82109487822206</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>109.0439970988727</v>
       </c>
     </row>
   </sheetData>
